--- a/config/excel/equipEnchant.xlsx
+++ b/config/excel/equipEnchant.xlsx
@@ -1,123 +1,94 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\go\src\github.com\east-eden\server\config\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="AttProto" sheetId="1" r:id="rId1"/>
+    <sheet name="AttProto" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>int</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>行列头两行不会被读取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>导出字段名</t>
   </si>
   <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>EquipPos</t>
+  </si>
+  <si>
+    <t>AttId</t>
+  </si>
+  <si>
     <t>导出字段描述</t>
   </si>
   <si>
-    <t>导出字段类型</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>装备位置</t>
+  </si>
+  <si>
+    <t>属性id</t>
+  </si>
+  <si>
+    <t>客户端导出字段类型</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>服务器导出字段类型</t>
   </si>
   <si>
     <t>导出字段默认值</t>
   </si>
   <si>
-    <t>EquipPos</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>0</t>
   </si>
   <si>
-    <t>装备位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>-1</t>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
+      <name val="SimSun"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -140,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -197,6 +168,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="10"/>
       </left>
@@ -220,112 +200,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff92d050"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -451,7 +494,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -460,7 +503,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -469,7 +512,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -543,7 +586,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -551,7 +594,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -570,7 +613,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -600,7 +643,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -626,7 +669,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -652,7 +695,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -678,7 +721,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -704,7 +747,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -730,7 +773,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -756,7 +799,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -782,7 +825,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -808,7 +851,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -821,15 +864,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -844,7 +881,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -852,7 +889,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -871,7 +908,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -897,7 +934,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -923,7 +960,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -949,7 +986,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -975,7 +1012,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1001,7 +1038,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1027,7 +1064,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1053,7 +1090,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1079,7 +1116,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1105,7 +1142,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1118,15 +1155,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1140,7 +1171,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1159,7 +1190,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1189,7 +1220,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1215,7 +1246,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1241,7 +1272,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1267,7 +1298,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1293,7 +1324,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1319,7 +1350,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1345,7 +1376,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1371,7 +1402,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1397,7 +1428,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1410,142 +1441,158 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="14.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" ht="16.15" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" ht="16.15" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" ht="16.15" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C3" t="s" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s" s="7">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s" s="8">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
+    <row r="4" ht="16.15" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" t="s" s="6">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s" s="8">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="6" t="s">
+    <row r="5" ht="16.15" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="16.15" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="C6" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="16.15" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
+    <row r="8" ht="14.65" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>16</v>
-      </c>
+    <row r="9" ht="16.15" customHeight="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
     </row>
-    <row r="6" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>6</v>
-      </c>
+    <row r="10" ht="14" customHeight="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
     </row>
-    <row r="7" spans="1:5" ht="14.65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+    <row r="11" ht="14" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/config/excel/equipEnchant.xlsx
+++ b/config/excel/equipEnchant.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>服务器导出字段类型</t>
+  </si>
+  <si>
+    <t>int32</t>
   </si>
   <si>
     <t>导出字段默认值</t>
@@ -1534,26 +1537,26 @@
         <v>11</v>
       </c>
       <c r="C6" t="s" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" ht="16.15" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" t="s" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" t="s" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" ht="14.65" customHeight="1">
@@ -1566,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s" s="10">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="16.15" customHeight="1">

--- a/config/excel/equipEnchant.xlsx
+++ b/config/excel/equipEnchant.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -50,15 +50,6 @@
   </si>
   <si>
     <t>int32</t>
-  </si>
-  <si>
-    <t>导出字段默认值</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-1</t>
   </si>
   <si>
     <t>1</t>
@@ -1456,7 +1447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1546,52 +1537,39 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="16.15" customHeight="1">
+    <row r="7" ht="14.65" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" t="s" s="6">
+      <c r="B7" s="3"/>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s" s="10">
         <v>13</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s" s="8">
-        <v>15</v>
-      </c>
     </row>
-    <row r="8" ht="14.65" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="9">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s" s="10">
-        <v>16</v>
-      </c>
+    <row r="8" ht="16.15" customHeight="1">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
     </row>
-    <row r="9" ht="16.15" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
+    <row r="9" ht="14" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" ht="14" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" ht="14" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/excel/equipEnchant.xlsx
+++ b/config/excel/equipEnchant.xlsx
@@ -1,55 +1,132 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
-    <sheet name="AttProto" sheetId="1" r:id="rId4"/>
+    <sheet name="EquipEnchant" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
   <si>
+    <t>装备id</t>
+  </si>
+  <si>
+    <t>0: 武器 +
+1: 衣服 +
+2: 鞋子 
+3: 饰品</t>
+  </si>
+  <si>
+    <t>-1代表无法突破到此等级</t>
+  </si>
+  <si>
+    <t>此列由前5列自动生成，不用填写</t>
+  </si>
+  <si>
     <t>导出字段名</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>EquipPos</t>
-  </si>
-  <si>
-    <t>AttId</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>attId</t>
+  </si>
+  <si>
+    <t>equipPos</t>
+  </si>
+  <si>
+    <t>promoteAttId</t>
+  </si>
+  <si>
+    <t>promoteSpellId</t>
+  </si>
+  <si>
+    <t>promoteCostId</t>
   </si>
   <si>
     <t>导出字段描述</t>
   </si>
   <si>
-    <t>id</t>
+    <t>物品描述</t>
+  </si>
+  <si>
+    <t>基础属性id</t>
   </si>
   <si>
     <t>装备位置</t>
   </si>
   <si>
-    <t>属性id</t>
-  </si>
-  <si>
-    <t>客户端导出字段类型</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>服务器导出字段类型</t>
+    <t>突破1属性id</t>
+  </si>
+  <si>
+    <t>突破2属性id</t>
+  </si>
+  <si>
+    <t>突破3属性id</t>
+  </si>
+  <si>
+    <t>突破4属性id</t>
+  </si>
+  <si>
+    <t>突破5属性id</t>
+  </si>
+  <si>
+    <t>突破1被动技能id</t>
+  </si>
+  <si>
+    <t>突破2被动技能id</t>
+  </si>
+  <si>
+    <t>突破3被动技能id</t>
+  </si>
+  <si>
+    <t>突破4被动技能id</t>
+  </si>
+  <si>
+    <t>突破5被动技能id</t>
+  </si>
+  <si>
+    <t>突破1消耗id</t>
+  </si>
+  <si>
+    <t>字段控制</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>导出字段类型</t>
   </si>
   <si>
     <t>int32</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>[]int32</t>
+  </si>
+  <si>
+    <t>测试测试</t>
+  </si>
+  <si>
+    <t>测试武器强化属性</t>
   </si>
   <si>
     <t>1</t>
@@ -59,33 +136,184 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="SimSun"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,17 +323,209 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -115,42 +535,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -158,28 +552,71 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -187,182 +624,323 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="10"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff92d050"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="0092D050"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -488,7 +1066,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -497,7 +1075,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -506,7 +1084,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -580,13 +1158,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -606,8 +1183,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -619,7 +1195,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -636,8 +1212,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -662,8 +1237,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -688,8 +1262,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -714,8 +1287,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -740,8 +1312,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -766,8 +1337,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -792,8 +1362,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -818,8 +1387,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -844,8 +1412,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -858,9 +1425,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -875,13 +1448,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -901,8 +1473,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -927,8 +1498,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -953,8 +1523,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -979,8 +1548,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1005,8 +1573,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1031,8 +1598,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1057,8 +1623,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1083,8 +1648,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1109,8 +1673,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1135,8 +1698,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1149,9 +1711,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1162,8 +1730,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1183,8 +1749,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1196,7 +1761,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1213,8 +1778,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1239,8 +1803,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1265,8 +1828,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1291,8 +1853,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1317,8 +1878,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1343,8 +1903,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1369,8 +1928,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1395,8 +1953,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1421,8 +1978,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1435,9 +1991,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1446,134 +2008,359 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="14.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.8461538461538" style="1" customWidth="1"/>
+    <col min="2" max="4" width="19.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.2307692307692" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.53846153846154" style="1" customWidth="1"/>
+    <col min="7" max="12" width="12.9230769230769" style="1" customWidth="1"/>
+    <col min="13" max="17" width="15.3846153846154" style="1" customWidth="1"/>
+    <col min="18" max="18" width="24.1538461538462" style="1" customWidth="1"/>
+    <col min="19" max="23" width="11.4615384615385" style="1" customWidth="1"/>
+    <col min="24" max="24" width="24.1538461538462" style="1" customWidth="1"/>
+    <col min="25" max="16374" width="19.25" style="1" customWidth="1"/>
+    <col min="16375" max="16384" width="19.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="16.8" spans="1:24">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
     </row>
-    <row r="2" ht="16.15" customHeight="1">
+    <row r="2" ht="68" spans="1:24">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1">
+    <row r="3" ht="16.15" customHeight="1" spans="1:24">
       <c r="A3" s="3"/>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="16.15" customHeight="1" spans="1:24">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="16.15" customHeight="1" spans="1:24">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" ht="16.15" customHeight="1" spans="1:24">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:24">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="D7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
         <v>2</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="H7" s="5">
         <v>3</v>
       </c>
-      <c r="E3" t="s" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" ht="16.15" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" t="s" s="6">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" ht="16.15" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" ht="16.15" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" ht="14.65" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="9">
+      <c r="I7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L7" s="5" t="str">
+        <f>G7&amp;","&amp;H7&amp;","&amp;I7&amp;","&amp;J7&amp;","&amp;K7</f>
+        <v>2,3,-1,-1,-1</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1100011</v>
+      </c>
+      <c r="N7" s="5">
+        <v>1100012</v>
+      </c>
+      <c r="O7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="R7" s="5" t="str">
+        <f>M7&amp;","&amp;N7&amp;","&amp;O7&amp;","&amp;P7&amp;","&amp;Q7</f>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s" s="10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" ht="16.15" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" ht="14" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" ht="14" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
+      <c r="T7" s="5">
+        <v>2</v>
+      </c>
+      <c r="U7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="V7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="W7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="X7" s="5" t="str">
+        <f>S7&amp;","&amp;T7&amp;","&amp;U7&amp;","&amp;V7&amp;","&amp;W7</f>
+        <v>1,2,-1,-1,-1</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/config/excel/equipEnchant.xlsx
+++ b/config/excel/equipEnchant.xlsx
@@ -2012,8 +2012,8 @@
   <sheetPr/>
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="6"/>
@@ -2027,8 +2027,8 @@
     <col min="18" max="18" width="24.1538461538462" style="1" customWidth="1"/>
     <col min="19" max="23" width="11.4615384615385" style="1" customWidth="1"/>
     <col min="24" max="24" width="24.1538461538462" style="1" customWidth="1"/>
-    <col min="25" max="16374" width="19.25" style="1" customWidth="1"/>
-    <col min="16375" max="16384" width="19.25" style="1"/>
+    <col min="25" max="16369" width="19.25" style="1" customWidth="1"/>
+    <col min="16370" max="16384" width="19.25" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.8" spans="1:24">
